--- a/scoresheets/MATCH40.xlsx
+++ b/scoresheets/MATCH40.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="34" documentId="11_5D194DB2B99CDDB9AFA0A1EBBBF4752EF7405EEC" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{02E217D7-51D3-4575-8473-2598C2364A4A}"/>
   <bookViews>
-    <workbookView xWindow="12630" yWindow="6840" windowWidth="7500" windowHeight="6000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Category" sheetId="1" r:id="rId1"/>
@@ -866,18 +866,45 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -886,33 +913,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -934,6 +934,9 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -944,19 +947,16 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1275,8 +1275,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView topLeftCell="B18" zoomScale="105" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="105" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1286,17 +1286,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C1" s="62" t="s">
+      <c r="C1" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="63"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="65" t="s">
+      <c r="D1" s="76"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="63"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="55"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="73"/>
       <c r="J1" s="56"/>
       <c r="K1" s="56"/>
       <c r="L1" s="56"/>
@@ -1333,7 +1333,7 @@
       <c r="N2" s="47"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="74" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -1349,7 +1349,7 @@
       <c r="H3" s="3"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A4" s="58"/>
+      <c r="A4" s="70"/>
       <c r="B4" s="6" t="s">
         <v>10</v>
       </c>
@@ -1361,7 +1361,7 @@
       <c r="H4" s="6"/>
     </row>
     <row r="5" spans="1:14" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="59"/>
+      <c r="A5" s="64"/>
       <c r="B5" s="9" t="s">
         <v>11</v>
       </c>
@@ -1373,7 +1373,7 @@
       <c r="H5" s="9"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A6" s="60" t="s">
+      <c r="A6" s="72" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="12" t="s">
@@ -1387,7 +1387,7 @@
       <c r="H6" s="12"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A7" s="58"/>
+      <c r="A7" s="70"/>
       <c r="B7" s="15" t="s">
         <v>9</v>
       </c>
@@ -1401,7 +1401,7 @@
       <c r="H7" s="15"/>
     </row>
     <row r="8" spans="1:14" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="61"/>
+      <c r="A8" s="71"/>
       <c r="B8" s="18" t="s">
         <v>11</v>
       </c>
@@ -1413,7 +1413,7 @@
       <c r="H8" s="18"/>
     </row>
     <row r="9" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="66" t="s">
+      <c r="A9" s="69" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -1429,7 +1429,7 @@
       <c r="H9" s="3"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A10" s="58"/>
+      <c r="A10" s="70"/>
       <c r="B10" s="6" t="s">
         <v>10</v>
       </c>
@@ -1443,7 +1443,7 @@
       </c>
     </row>
     <row r="11" spans="1:14" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A11" s="61"/>
+      <c r="A11" s="71"/>
       <c r="B11" s="9" t="s">
         <v>11</v>
       </c>
@@ -1457,7 +1457,7 @@
       <c r="H11" s="9"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A12" s="60" t="s">
+      <c r="A12" s="72" t="s">
         <v>14</v>
       </c>
       <c r="B12" s="12" t="s">
@@ -1471,7 +1471,7 @@
       <c r="H12" s="12"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A13" s="58"/>
+      <c r="A13" s="70"/>
       <c r="B13" s="15" t="s">
         <v>9</v>
       </c>
@@ -1485,7 +1485,7 @@
       <c r="H13" s="15"/>
     </row>
     <row r="14" spans="1:14" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A14" s="61"/>
+      <c r="A14" s="71"/>
       <c r="B14" s="18" t="s">
         <v>11</v>
       </c>
@@ -1497,7 +1497,7 @@
       <c r="H14" s="18"/>
     </row>
     <row r="15" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="66" t="s">
+      <c r="A15" s="69" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -1513,7 +1513,7 @@
       <c r="H15" s="3"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A16" s="58"/>
+      <c r="A16" s="70"/>
       <c r="B16" s="6" t="s">
         <v>10</v>
       </c>
@@ -1525,7 +1525,7 @@
       <c r="H16" s="6"/>
     </row>
     <row r="17" spans="1:8" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A17" s="61"/>
+      <c r="A17" s="71"/>
       <c r="B17" s="9" t="s">
         <v>11</v>
       </c>
@@ -1539,7 +1539,7 @@
       <c r="H17" s="9"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A18" s="60" t="s">
+      <c r="A18" s="72" t="s">
         <v>16</v>
       </c>
       <c r="B18" s="12" t="s">
@@ -1555,7 +1555,7 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A19" s="58"/>
+      <c r="A19" s="70"/>
       <c r="B19" s="15" t="s">
         <v>9</v>
       </c>
@@ -1569,7 +1569,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A20" s="61"/>
+      <c r="A20" s="71"/>
       <c r="B20" s="18" t="s">
         <v>11</v>
       </c>
@@ -1583,7 +1583,7 @@
       <c r="H20" s="18"/>
     </row>
     <row r="21" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="66" t="s">
+      <c r="A21" s="69" t="s">
         <v>17</v>
       </c>
       <c r="B21" s="3" t="s">
@@ -1597,7 +1597,7 @@
       <c r="H21" s="3"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A22" s="58"/>
+      <c r="A22" s="70"/>
       <c r="B22" s="6" t="s">
         <v>10</v>
       </c>
@@ -1609,7 +1609,7 @@
       <c r="H22" s="6"/>
     </row>
     <row r="23" spans="1:8" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A23" s="61"/>
+      <c r="A23" s="71"/>
       <c r="B23" s="9" t="s">
         <v>11</v>
       </c>
@@ -1621,7 +1621,7 @@
       <c r="H23" s="9"/>
     </row>
     <row r="24" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="60" t="s">
+      <c r="A24" s="72" t="s">
         <v>18</v>
       </c>
       <c r="B24" s="12" t="s">
@@ -1637,7 +1637,7 @@
       <c r="H24" s="12"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A25" s="58"/>
+      <c r="A25" s="70"/>
       <c r="B25" s="15" t="s">
         <v>9</v>
       </c>
@@ -1649,7 +1649,7 @@
       <c r="H25" s="15"/>
     </row>
     <row r="26" spans="1:8" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A26" s="61"/>
+      <c r="A26" s="71"/>
       <c r="B26" s="18" t="s">
         <v>11</v>
       </c>
@@ -1661,7 +1661,7 @@
       <c r="H26" s="18"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A27" s="66" t="s">
+      <c r="A27" s="69" t="s">
         <v>19</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -1677,7 +1677,7 @@
       <c r="H27" s="3"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A28" s="58"/>
+      <c r="A28" s="70"/>
       <c r="B28" s="6" t="s">
         <v>10</v>
       </c>
@@ -1691,7 +1691,7 @@
       <c r="H28" s="6"/>
     </row>
     <row r="29" spans="1:8" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A29" s="61"/>
+      <c r="A29" s="71"/>
       <c r="B29" s="9" t="s">
         <v>11</v>
       </c>
@@ -1705,7 +1705,7 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A30" s="60" t="s">
+      <c r="A30" s="72" t="s">
         <v>20</v>
       </c>
       <c r="B30" s="21" t="s">
@@ -1719,7 +1719,7 @@
       <c r="H30" s="21"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A31" s="58"/>
+      <c r="A31" s="70"/>
       <c r="B31" s="15" t="s">
         <v>9</v>
       </c>
@@ -1733,7 +1733,7 @@
       </c>
     </row>
     <row r="32" spans="1:8" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A32" s="61"/>
+      <c r="A32" s="71"/>
       <c r="B32" s="24" t="s">
         <v>11</v>
       </c>
@@ -1745,50 +1745,50 @@
       <c r="H32" s="18"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A33" s="71" t="s">
+      <c r="A33" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="B33" s="72"/>
-      <c r="C33" s="67">
+      <c r="B33" s="58"/>
+      <c r="C33" s="63">
         <f>SUM(C3:C32)</f>
         <v>0</v>
       </c>
-      <c r="D33" s="68">
+      <c r="D33" s="65">
         <f>SUM(D3:D32)</f>
         <v>0</v>
       </c>
-      <c r="E33" s="75">
+      <c r="E33" s="61">
         <f>SUM(E3:E32)+C33+D33</f>
         <v>14</v>
       </c>
-      <c r="F33" s="67">
+      <c r="F33" s="63">
         <f>SUM(F3:F32)</f>
         <v>3</v>
       </c>
-      <c r="G33" s="68">
+      <c r="G33" s="65">
         <f>SUM(G3:G32)</f>
         <v>6</v>
       </c>
-      <c r="H33" s="77">
+      <c r="H33" s="67">
         <f>SUM(H3:H32)+F33+G33</f>
         <v>17</v>
       </c>
-      <c r="I33" s="70"/>
-      <c r="J33" s="70"/>
-      <c r="K33" s="70"/>
-      <c r="L33" s="70"/>
-      <c r="M33" s="70"/>
-      <c r="N33" s="70"/>
+      <c r="I33" s="55"/>
+      <c r="J33" s="55"/>
+      <c r="K33" s="55"/>
+      <c r="L33" s="55"/>
+      <c r="M33" s="55"/>
+      <c r="N33" s="55"/>
     </row>
     <row r="34" spans="1:14" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A34" s="73"/>
-      <c r="B34" s="74"/>
-      <c r="C34" s="59"/>
-      <c r="D34" s="69"/>
-      <c r="E34" s="76"/>
-      <c r="F34" s="59"/>
-      <c r="G34" s="69"/>
-      <c r="H34" s="78"/>
+      <c r="A34" s="59"/>
+      <c r="B34" s="60"/>
+      <c r="C34" s="64"/>
+      <c r="D34" s="66"/>
+      <c r="E34" s="62"/>
+      <c r="F34" s="64"/>
+      <c r="G34" s="66"/>
+      <c r="H34" s="68"/>
       <c r="I34" s="56"/>
       <c r="J34" s="56"/>
       <c r="K34" s="56"/>
@@ -1798,6 +1798,21 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="A24:A26"/>
     <mergeCell ref="K33:K34"/>
     <mergeCell ref="L33:L34"/>
     <mergeCell ref="M33:M34"/>
@@ -1809,21 +1824,6 @@
     <mergeCell ref="H33:H34"/>
     <mergeCell ref="I33:I34"/>
     <mergeCell ref="J33:J34"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="I1:N1"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -1848,25 +1848,25 @@
       </c>
       <c r="C1" s="80"/>
       <c r="D1" s="80"/>
-      <c r="E1" s="72"/>
+      <c r="E1" s="58"/>
       <c r="F1" s="82" t="str">
         <f>Category!F1</f>
         <v>The Woke Left Strikes Again</v>
       </c>
       <c r="G1" s="80"/>
       <c r="H1" s="80"/>
-      <c r="I1" s="72"/>
+      <c r="I1" s="58"/>
     </row>
     <row r="2" spans="1:9" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="84"/>
-      <c r="B2" s="73"/>
+      <c r="B2" s="59"/>
       <c r="C2" s="81"/>
       <c r="D2" s="81"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="73"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="59"/>
       <c r="G2" s="81"/>
       <c r="H2" s="81"/>
-      <c r="I2" s="74"/>
+      <c r="I2" s="60"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" s="85" t="s">
@@ -1877,24 +1877,24 @@
       </c>
       <c r="C3" s="80"/>
       <c r="D3" s="80"/>
-      <c r="E3" s="72"/>
+      <c r="E3" s="58"/>
       <c r="F3" s="87">
         <v>8</v>
       </c>
       <c r="G3" s="80"/>
       <c r="H3" s="80"/>
-      <c r="I3" s="72"/>
+      <c r="I3" s="58"/>
     </row>
     <row r="4" spans="1:9" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" s="84"/>
-      <c r="B4" s="73"/>
+      <c r="B4" s="59"/>
       <c r="C4" s="81"/>
       <c r="D4" s="81"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="73"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="59"/>
       <c r="G4" s="81"/>
       <c r="H4" s="81"/>
-      <c r="I4" s="74"/>
+      <c r="I4" s="60"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5" s="46"/>
@@ -2155,18 +2155,18 @@
   <sheetData>
     <row r="1" spans="1:14" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="1"/>
-      <c r="C1" s="62" t="str">
+      <c r="C1" s="75" t="str">
         <f>Category!C1</f>
         <v>AP World Government</v>
       </c>
-      <c r="D1" s="63"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="65" t="str">
+      <c r="D1" s="76"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="78" t="str">
         <f>Category!F1</f>
         <v>The Woke Left Strikes Again</v>
       </c>
-      <c r="G1" s="63"/>
-      <c r="H1" s="64"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="77"/>
     </row>
     <row r="2" spans="1:14" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="1"/>
@@ -2203,7 +2203,7 @@
       <c r="N2" s="47"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A3" s="88">
+      <c r="A3" s="89">
         <v>5</v>
       </c>
       <c r="B3" s="28">
@@ -2217,7 +2217,7 @@
       <c r="H3" s="3"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A4" s="89"/>
+      <c r="A4" s="90"/>
       <c r="B4" s="29">
         <v>2</v>
       </c>
@@ -2231,7 +2231,7 @@
       <c r="H4" s="6"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A5" s="89"/>
+      <c r="A5" s="90"/>
       <c r="B5" s="29">
         <v>3</v>
       </c>
@@ -2245,7 +2245,7 @@
       <c r="H5" s="6"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A6" s="89"/>
+      <c r="A6" s="90"/>
       <c r="B6" s="29">
         <v>4</v>
       </c>
@@ -2273,7 +2273,7 @@
       <c r="H7" s="9"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A8" s="90">
+      <c r="A8" s="91">
         <v>10</v>
       </c>
       <c r="B8" s="31">
@@ -2289,7 +2289,7 @@
       <c r="H8" s="12"/>
     </row>
     <row r="9" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="89"/>
+      <c r="A9" s="90"/>
       <c r="B9" s="32">
         <v>7</v>
       </c>
@@ -2301,7 +2301,7 @@
       <c r="H9" s="15"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A10" s="89"/>
+      <c r="A10" s="90"/>
       <c r="B10" s="32">
         <v>8</v>
       </c>
@@ -2313,7 +2313,7 @@
       <c r="H10" s="15"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A11" s="89"/>
+      <c r="A11" s="90"/>
       <c r="B11" s="32">
         <v>9</v>
       </c>
@@ -2337,7 +2337,7 @@
       <c r="H12" s="18"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A13" s="88">
+      <c r="A13" s="89">
         <v>15</v>
       </c>
       <c r="B13" s="28">
@@ -2353,7 +2353,7 @@
       <c r="H13" s="3"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A14" s="89"/>
+      <c r="A14" s="90"/>
       <c r="B14" s="29">
         <v>12</v>
       </c>
@@ -2367,7 +2367,7 @@
       <c r="H14" s="6"/>
     </row>
     <row r="15" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="89"/>
+      <c r="A15" s="90"/>
       <c r="B15" s="29">
         <v>13</v>
       </c>
@@ -2381,7 +2381,7 @@
       <c r="H15" s="6"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A16" s="89"/>
+      <c r="A16" s="90"/>
       <c r="B16" s="29">
         <v>14</v>
       </c>
@@ -2407,7 +2407,7 @@
       <c r="H17" s="9"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A18" s="90">
+      <c r="A18" s="91">
         <v>20</v>
       </c>
       <c r="B18" s="31">
@@ -2423,7 +2423,7 @@
       <c r="H18" s="12"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A19" s="89"/>
+      <c r="A19" s="90"/>
       <c r="B19" s="32">
         <v>17</v>
       </c>
@@ -2435,7 +2435,7 @@
       <c r="H19" s="15"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A20" s="89"/>
+      <c r="A20" s="90"/>
       <c r="B20" s="32">
         <v>18</v>
       </c>
@@ -2449,7 +2449,7 @@
       <c r="H20" s="15"/>
     </row>
     <row r="21" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="89"/>
+      <c r="A21" s="90"/>
       <c r="B21" s="32">
         <v>19</v>
       </c>
@@ -2475,7 +2475,7 @@
       <c r="H22" s="18"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A23" s="88">
+      <c r="A23" s="89">
         <v>25</v>
       </c>
       <c r="B23" s="28">
@@ -2489,7 +2489,7 @@
       <c r="H23" s="3"/>
     </row>
     <row r="24" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="89"/>
+      <c r="A24" s="90"/>
       <c r="B24" s="29">
         <v>22</v>
       </c>
@@ -2501,7 +2501,7 @@
       <c r="H24" s="6"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A25" s="89"/>
+      <c r="A25" s="90"/>
       <c r="B25" s="29">
         <v>23</v>
       </c>
@@ -2515,7 +2515,7 @@
       <c r="H25" s="6"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A26" s="89"/>
+      <c r="A26" s="90"/>
       <c r="B26" s="29">
         <v>24</v>
       </c>
@@ -2541,7 +2541,7 @@
       <c r="H27" s="9"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A28" s="91">
+      <c r="A28" s="92">
         <v>30</v>
       </c>
       <c r="B28" s="34">
@@ -2555,7 +2555,7 @@
       <c r="H28" s="21"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A29" s="89"/>
+      <c r="A29" s="90"/>
       <c r="B29" s="32">
         <v>27</v>
       </c>
@@ -2567,7 +2567,7 @@
       <c r="H29" s="15"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A30" s="89"/>
+      <c r="A30" s="90"/>
       <c r="B30" s="32">
         <v>28</v>
       </c>
@@ -2579,7 +2579,7 @@
       <c r="H30" s="15"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A31" s="89"/>
+      <c r="A31" s="90"/>
       <c r="B31" s="32">
         <v>29</v>
       </c>
@@ -2603,31 +2603,31 @@
       <c r="H32" s="18"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A33" s="71" t="s">
+      <c r="A33" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="B33" s="72"/>
-      <c r="C33" s="67">
+      <c r="B33" s="58"/>
+      <c r="C33" s="63">
         <f>SUM(C3:C32)</f>
         <v>7</v>
       </c>
-      <c r="D33" s="68">
+      <c r="D33" s="65">
         <f>SUM(D3:D32)</f>
         <v>7</v>
       </c>
-      <c r="E33" s="77">
+      <c r="E33" s="67">
         <f>SUM(E3:E32)+C33+D33</f>
         <v>14</v>
       </c>
-      <c r="F33" s="67">
+      <c r="F33" s="63">
         <f>SUM(F3:F32)</f>
         <v>16</v>
       </c>
-      <c r="G33" s="68">
+      <c r="G33" s="65">
         <f>SUM(G3:G32)</f>
         <v>2</v>
       </c>
-      <c r="H33" s="92">
+      <c r="H33" s="88">
         <f>SUM(H3:H32)+F33+G33</f>
         <v>18</v>
       </c>
@@ -2639,14 +2639,14 @@
       <c r="N33" s="46"/>
     </row>
     <row r="34" spans="1:14" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A34" s="73"/>
-      <c r="B34" s="74"/>
-      <c r="C34" s="59"/>
-      <c r="D34" s="69"/>
-      <c r="E34" s="78"/>
-      <c r="F34" s="59"/>
-      <c r="G34" s="69"/>
-      <c r="H34" s="78"/>
+      <c r="A34" s="59"/>
+      <c r="B34" s="60"/>
+      <c r="C34" s="64"/>
+      <c r="D34" s="66"/>
+      <c r="E34" s="68"/>
+      <c r="F34" s="64"/>
+      <c r="G34" s="66"/>
+      <c r="H34" s="68"/>
       <c r="I34" s="46"/>
       <c r="J34" s="46"/>
       <c r="K34" s="46"/>
@@ -2680,159 +2680,159 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A1" s="55"/>
+      <c r="A1" s="73"/>
       <c r="B1" s="56"/>
-      <c r="C1" s="93" t="str">
+      <c r="C1" s="95" t="str">
         <f>Category!C1</f>
         <v>AP World Government</v>
       </c>
       <c r="D1" s="80"/>
       <c r="E1" s="80"/>
       <c r="F1" s="80"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="94" t="str">
+      <c r="G1" s="58"/>
+      <c r="H1" s="96" t="str">
         <f>Category!F1</f>
         <v>The Woke Left Strikes Again</v>
       </c>
       <c r="I1" s="80"/>
       <c r="J1" s="80"/>
       <c r="K1" s="80"/>
-      <c r="L1" s="72"/>
+      <c r="L1" s="58"/>
     </row>
     <row r="2" spans="1:12" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="56"/>
       <c r="B2" s="56"/>
-      <c r="C2" s="73"/>
+      <c r="C2" s="59"/>
       <c r="D2" s="81"/>
       <c r="E2" s="81"/>
       <c r="F2" s="81"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="73"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="59"/>
       <c r="I2" s="81"/>
       <c r="J2" s="81"/>
       <c r="K2" s="81"/>
-      <c r="L2" s="74"/>
+      <c r="L2" s="60"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A3" s="95" t="s">
+      <c r="A3" s="93" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="72"/>
-      <c r="C3" s="95">
+      <c r="B3" s="58"/>
+      <c r="C3" s="93">
         <f>Category!E33</f>
         <v>14</v>
       </c>
       <c r="D3" s="80"/>
       <c r="E3" s="80"/>
       <c r="F3" s="80"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="95">
+      <c r="G3" s="58"/>
+      <c r="H3" s="93">
         <f>Category!H33</f>
         <v>17</v>
       </c>
       <c r="I3" s="80"/>
       <c r="J3" s="80"/>
       <c r="K3" s="80"/>
-      <c r="L3" s="72"/>
+      <c r="L3" s="58"/>
     </row>
     <row r="4" spans="1:12" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="73"/>
-      <c r="B4" s="74"/>
-      <c r="C4" s="73"/>
+      <c r="A4" s="59"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="59"/>
       <c r="D4" s="81"/>
       <c r="E4" s="81"/>
       <c r="F4" s="81"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="73"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="59"/>
       <c r="I4" s="81"/>
       <c r="J4" s="81"/>
       <c r="K4" s="81"/>
-      <c r="L4" s="74"/>
+      <c r="L4" s="60"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A5" s="96" t="s">
+      <c r="A5" s="94" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="72"/>
-      <c r="C5" s="96">
+      <c r="B5" s="58"/>
+      <c r="C5" s="94">
         <f>Alphabet!B3</f>
         <v>16</v>
       </c>
       <c r="D5" s="80"/>
       <c r="E5" s="80"/>
       <c r="F5" s="80"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="96">
+      <c r="G5" s="58"/>
+      <c r="H5" s="94">
         <f>Alphabet!F3</f>
         <v>8</v>
       </c>
       <c r="I5" s="80"/>
       <c r="J5" s="80"/>
       <c r="K5" s="80"/>
-      <c r="L5" s="72"/>
+      <c r="L5" s="58"/>
     </row>
     <row r="6" spans="1:12" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="73"/>
-      <c r="B6" s="74"/>
-      <c r="C6" s="73"/>
+      <c r="A6" s="59"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="59"/>
       <c r="D6" s="81"/>
       <c r="E6" s="81"/>
       <c r="F6" s="81"/>
-      <c r="G6" s="74"/>
-      <c r="H6" s="73"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="59"/>
       <c r="I6" s="81"/>
       <c r="J6" s="81"/>
       <c r="K6" s="81"/>
-      <c r="L6" s="74"/>
+      <c r="L6" s="60"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A7" s="95" t="s">
+      <c r="A7" s="93" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="72"/>
-      <c r="C7" s="95">
+      <c r="B7" s="58"/>
+      <c r="C7" s="93">
         <f>Lightning!E33</f>
         <v>14</v>
       </c>
       <c r="D7" s="80"/>
       <c r="E7" s="80"/>
       <c r="F7" s="80"/>
-      <c r="G7" s="72"/>
-      <c r="H7" s="95">
+      <c r="G7" s="58"/>
+      <c r="H7" s="93">
         <f>Lightning!H33</f>
         <v>18</v>
       </c>
       <c r="I7" s="80"/>
       <c r="J7" s="80"/>
       <c r="K7" s="80"/>
-      <c r="L7" s="72"/>
+      <c r="L7" s="58"/>
     </row>
     <row r="8" spans="1:12" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="73"/>
-      <c r="B8" s="74"/>
-      <c r="C8" s="73"/>
+      <c r="A8" s="59"/>
+      <c r="B8" s="60"/>
+      <c r="C8" s="59"/>
       <c r="D8" s="81"/>
       <c r="E8" s="81"/>
       <c r="F8" s="81"/>
-      <c r="G8" s="74"/>
-      <c r="H8" s="73"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="59"/>
       <c r="I8" s="81"/>
       <c r="J8" s="81"/>
       <c r="K8" s="81"/>
-      <c r="L8" s="74"/>
+      <c r="L8" s="60"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A9" s="83" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="72"/>
+      <c r="B9" s="58"/>
       <c r="C9" s="79">
         <f>SUM(C3:G8)</f>
         <v>44</v>
@@ -2840,7 +2840,7 @@
       <c r="D9" s="80"/>
       <c r="E9" s="80"/>
       <c r="F9" s="80"/>
-      <c r="G9" s="72"/>
+      <c r="G9" s="58"/>
       <c r="H9" s="82">
         <f>SUM(H3:L8)</f>
         <v>43</v>
@@ -2848,24 +2848,29 @@
       <c r="I9" s="80"/>
       <c r="J9" s="80"/>
       <c r="K9" s="80"/>
-      <c r="L9" s="72"/>
+      <c r="L9" s="58"/>
     </row>
     <row r="10" spans="1:12" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="73"/>
-      <c r="B10" s="74"/>
-      <c r="C10" s="73"/>
+      <c r="A10" s="59"/>
+      <c r="B10" s="60"/>
+      <c r="C10" s="59"/>
       <c r="D10" s="81"/>
       <c r="E10" s="81"/>
       <c r="F10" s="81"/>
-      <c r="G10" s="74"/>
-      <c r="H10" s="73"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="59"/>
       <c r="I10" s="81"/>
       <c r="J10" s="81"/>
       <c r="K10" s="81"/>
-      <c r="L10" s="74"/>
+      <c r="L10" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:G2"/>
+    <mergeCell ref="H1:L2"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="C3:G4"/>
     <mergeCell ref="A9:B10"/>
     <mergeCell ref="C9:G10"/>
     <mergeCell ref="H9:L10"/>
@@ -2876,11 +2881,6 @@
     <mergeCell ref="C7:G8"/>
     <mergeCell ref="H7:L8"/>
     <mergeCell ref="A5:B6"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:G2"/>
-    <mergeCell ref="H1:L2"/>
-    <mergeCell ref="A3:B4"/>
-    <mergeCell ref="C3:G4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
